--- a/public/AddInfos/en/7.1.2.xlsx
+++ b/public/AddInfos/en/7.1.2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20351"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dauerausleihe04\Documents\SDG\SdgTestEnvironment\sdg-indicators\public\AddInfos\en\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CECDCC-F3FA-4619-8F97-21FEE7FA70DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="75" windowWidth="11580" windowHeight="13290"/>
+    <workbookView xWindow="-72" yWindow="72" windowWidth="11580" windowHeight="13296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>&gt; 95</t>
   </si>
@@ -27,16 +33,10 @@
     <t xml:space="preserve">Copyright: </t>
   </si>
   <si>
-    <t>©       Statistisches Bundesamt (Destatis) 2020</t>
-  </si>
-  <si>
     <t>Population with primary reliance on clean fuels and technology</t>
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Value in percent</t>
   </si>
   <si>
     <t>Datasource:</t>
@@ -45,13 +45,25 @@
     <t>Reproduction and distribution, also of parts, are permitted provided that the source is mentioned.</t>
   </si>
   <si>
-    <t>World Health Organization (WHO), updated 11.04.2019</t>
+    <t>World Health Organization (WHO)</t>
+  </si>
+  <si>
+    <t>©       Statistisches Bundesamt (Destatis) 2021</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Comment:</t>
+  </si>
+  <si>
+    <t>Estimated data.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -163,9 +175,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -181,12 +190,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -220,7 +232,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -237,10 +248,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$A$1:$A$8</c:f>
+              <c:f>Tabelle2!$A$1:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -264,16 +275,25 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$B$1:$B$8</c:f>
+              <c:f>Tabelle2!$B$1:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>95</c:v>
                 </c:pt>
@@ -296,11 +316,25 @@
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E445-4FC1-8C3E-FFB64BC423ED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -312,10 +346,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$A$1:$A$8</c:f>
+              <c:f>Tabelle2!$A$1:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -339,16 +373,25 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$C$1:$C$8</c:f>
+              <c:f>Tabelle2!$C$1:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -371,11 +414,25 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E445-4FC1-8C3E-FFB64BC423ED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -396,25 +453,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Year</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -447,12 +485,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Percent (%)</a:t>
+                  <a:t>Percent</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -482,18 +519,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>178904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>178904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -519,11 +562,17 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>365045</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>79513</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Grafik 4"/>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -556,18 +605,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>149088</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>41412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>291945</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>184269</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Grafik 6"/>
+        <xdr:cNvPr id="7" name="Grafik 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -600,9 +655,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -640,9 +695,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -675,9 +730,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -710,9 +782,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -885,22 +974,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -909,7 +998,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -918,12 +1007,12 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -931,12 +1020,12 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -944,7 +1033,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2010</v>
       </c>
@@ -957,7 +1046,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2011</v>
       </c>
@@ -970,7 +1059,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2012</v>
       </c>
@@ -983,7 +1072,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2013</v>
       </c>
@@ -996,7 +1085,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2014</v>
       </c>
@@ -1009,7 +1098,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>2015</v>
       </c>
@@ -1022,7 +1111,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2016</v>
       </c>
@@ -1035,7 +1124,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2017</v>
       </c>
@@ -1048,34 +1137,46 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="11"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1084,7 +1185,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1093,7 +1194,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1102,7 +1203,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1111,7 +1212,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1120,7 +1221,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1129,7 +1230,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1138,7 +1239,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1147,7 +1248,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1156,7 +1257,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1165,7 +1266,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1174,7 +1275,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1183,7 +1284,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1192,7 +1293,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1201,7 +1302,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1210,7 +1311,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1219,7 +1320,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1228,7 +1329,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1237,7 +1338,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1246,25 +1347,21 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="7"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="1"/>
@@ -1272,37 +1369,45 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="10" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1311,7 +1416,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1320,28 +1425,46 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B39:H39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+      <selection activeCell="A6" sqref="A6:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
         <v>2010</v>
       </c>
@@ -1352,7 +1475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>2011</v>
       </c>
@@ -1363,7 +1486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2012</v>
       </c>
@@ -1374,7 +1497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2013</v>
       </c>
@@ -1385,7 +1508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2014</v>
       </c>
@@ -1396,7 +1519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2015</v>
       </c>
@@ -1407,7 +1530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2016</v>
       </c>
@@ -1418,7 +1541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2017</v>
       </c>
@@ -1426,6 +1549,39 @@
         <v>95</v>
       </c>
       <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B9">
+        <v>95</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B10">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B11">
+        <v>95</v>
+      </c>
+      <c r="C11">
         <v>5</v>
       </c>
     </row>
@@ -1435,12 +1591,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/AddInfos/en/7.1.2.xlsx
+++ b/public/AddInfos/en/7.1.2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20351"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dauerausleihe04\Documents\SDG\SdgTestEnvironment\sdg-indicators\public\AddInfos\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\G2\Nachhaltigkeit\international\b_Daten\Indikatoren\SDG 7\7-1-2\Daten\ZusätzlicheInformationenEn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CECDCC-F3FA-4619-8F97-21FEE7FA70DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-72" yWindow="72" windowWidth="11580" windowHeight="13296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="75" windowWidth="11580" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>&gt; 95</t>
   </si>
@@ -48,9 +47,6 @@
     <t>World Health Organization (WHO)</t>
   </si>
   <si>
-    <t>©       Statistisches Bundesamt (Destatis) 2021</t>
-  </si>
-  <si>
     <t>Percent</t>
   </si>
   <si>
@@ -59,11 +55,14 @@
   <si>
     <t>Estimated data.</t>
   </si>
+  <si>
+    <t>©       Statistisches Bundesamt (Destatis) 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,6 +231,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -248,10 +248,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$A$1:$A$11</c:f>
+              <c:f>Tabelle2!$A$1:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -284,16 +284,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$B$1:$B$11</c:f>
+              <c:f>Tabelle2!$B$1:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>95</c:v>
                 </c:pt>
@@ -325,6 +328,9 @@
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
@@ -346,10 +352,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$A$1:$A$11</c:f>
+              <c:f>Tabelle2!$A$1:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -382,16 +388,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$C$1:$C$11</c:f>
+              <c:f>Tabelle2!$C$1:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -423,6 +432,9 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -490,6 +502,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -519,13 +532,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>178904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>178904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -605,13 +618,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>149088</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>41412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>291945</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>184269</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -730,23 +743,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -782,23 +778,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -974,22 +953,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -998,7 +977,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1007,7 +986,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1020,12 +999,12 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1033,7 +1012,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2010</v>
       </c>
@@ -1046,7 +1025,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2011</v>
       </c>
@@ -1059,7 +1038,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2012</v>
       </c>
@@ -1072,7 +1051,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2013</v>
       </c>
@@ -1085,7 +1064,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2014</v>
       </c>
@@ -1098,7 +1077,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2015</v>
       </c>
@@ -1111,7 +1090,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2016</v>
       </c>
@@ -1124,7 +1103,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2017</v>
       </c>
@@ -1137,7 +1116,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2018</v>
       </c>
@@ -1150,7 +1129,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2019</v>
       </c>
@@ -1163,7 +1142,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2020</v>
       </c>
@@ -1176,16 +1155,20 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1194,7 +1177,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1203,7 +1186,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1212,7 +1195,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1221,7 +1204,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1230,7 +1213,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1239,7 +1222,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1248,7 +1231,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1257,7 +1240,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1266,7 +1249,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1275,7 +1258,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1284,7 +1267,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1293,7 +1276,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1302,7 +1285,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1311,7 +1294,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1320,7 +1303,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1329,7 +1312,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1338,7 +1321,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1347,7 +1330,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1356,25 +1339,21 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="7"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="1"/>
@@ -1382,12 +1361,12 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="1"/>
@@ -1395,28 +1374,32 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="10" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1425,7 +1408,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1434,7 +1417,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1443,10 +1426,19 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1455,16 +1447,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>2010</v>
       </c>
@@ -1475,7 +1467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2011</v>
       </c>
@@ -1486,7 +1478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2012</v>
       </c>
@@ -1497,7 +1489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2013</v>
       </c>
@@ -1508,7 +1500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2014</v>
       </c>
@@ -1519,7 +1511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2015</v>
       </c>
@@ -1530,7 +1522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2016</v>
       </c>
@@ -1541,7 +1533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2017</v>
       </c>
@@ -1552,7 +1544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2018</v>
       </c>
@@ -1563,7 +1555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2019</v>
       </c>
@@ -1574,7 +1566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2020</v>
       </c>
@@ -1582,6 +1574,17 @@
         <v>95</v>
       </c>
       <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B12">
+        <v>95</v>
+      </c>
+      <c r="C12">
         <v>5</v>
       </c>
     </row>
@@ -1591,12 +1594,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
